--- a/Team-Data/2014-15/3-7-2014-15.xlsx
+++ b/Team-Data/2014-15/3-7-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
         <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.79</v>
+        <v>0.803</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
         <v>9.9</v>
@@ -696,28 +763,28 @@
         <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
         <v>0.777</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
         <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -732,28 +799,28 @@
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
         <v>25</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>20</v>
@@ -938,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -974,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1132,10 +1199,10 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>27</v>
@@ -1144,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
@@ -1356,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1475,25 +1542,25 @@
         <v>3</v>
       </c>
       <c r="AE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
         <v>9</v>
       </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>8</v>
       </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1520,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>14</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.615</v>
+        <v>0.609</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L7" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
@@ -1612,10 +1679,10 @@
         <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
@@ -1636,7 +1703,7 @@
         <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y7" t="n">
         <v>4.7</v>
@@ -1648,34 +1715,34 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1690,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1702,16 +1769,16 @@
         <v>22</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.635</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,19 +1843,19 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
         <v>16.5</v>
@@ -1797,22 +1864,22 @@
         <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1827,28 +1894,28 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1869,19 +1936,19 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1905,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,55 +2025,55 @@
         <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.429</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
         <v>0.314</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T9" t="n">
         <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>20.8</v>
@@ -2015,10 +2082,10 @@
         <v>99.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2036,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
@@ -2051,10 +2118,10 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,31 +2130,31 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="AX9" t="n">
-        <v>16</v>
-      </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -2254,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -2421,10 +2488,10 @@
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -2501,34 +2568,34 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="M12" t="n">
         <v>33.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
         <v>31.7</v>
@@ -2537,10 +2604,10 @@
         <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
@@ -2549,31 +2616,31 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
         <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>18</v>
@@ -2582,10 +2649,10 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,25 +2676,25 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT12" t="n">
         <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.452</v>
+        <v>0.443</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,19 +2765,19 @@
         <v>20.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R13" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S13" t="n">
         <v>34.5</v>
@@ -2722,31 +2789,31 @@
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
         <v>20.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2755,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2767,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,13 +2846,13 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>19</v>
@@ -2800,13 +2867,13 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.262</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,34 +3198,34 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM15" t="n">
         <v>24</v>
       </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3176,13 +3243,13 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.71</v>
+        <v>0.721</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
         <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3265,19 +3332,19 @@
         <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19</v>
@@ -3286,13 +3353,13 @@
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3328,22 +3395,22 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3364,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.452</v>
+        <v>0.443</v>
       </c>
       <c r="H17" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J17" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
         <v>7</v>
@@ -3426,25 +3493,25 @@
         <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
@@ -3453,7 +3520,7 @@
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
@@ -3465,16 +3532,16 @@
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3483,10 +3550,10 @@
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3495,22 +3562,22 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>18</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.532</v>
+        <v>0.525</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3602,22 +3669,22 @@
         <v>0.46</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
         <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
@@ -3635,13 +3702,13 @@
         <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>22.1</v>
@@ -3650,22 +3717,22 @@
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
@@ -3680,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3689,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>13</v>
@@ -3722,13 +3789,13 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.23</v>
+        <v>0.217</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
         <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
         <v>41.9</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.4</v>
@@ -3826,19 +3893,19 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
         <v>21.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,13 +3917,13 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3889,10 +3956,10 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -3957,52 +4024,52 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,22 +4099,22 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>8</v>
@@ -4059,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU20" t="n">
         <v>16</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -4124,49 +4191,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J21" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="P21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.771</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.5</v>
@@ -4175,7 +4242,7 @@
         <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>14.4</v>
@@ -4190,19 +4257,19 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC21" t="n">
         <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4226,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>17</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -4420,16 +4487,16 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.323</v>
+        <v>0.317</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
         <v>14.1</v>
@@ -4527,31 +4594,31 @@
         <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.3</v>
@@ -4560,13 +4627,13 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,19 +4645,19 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,10 +4696,10 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>49</v>
       </c>
       <c r="G24" t="n">
-        <v>0.222</v>
+        <v>0.21</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,79 +4755,79 @@
         <v>33.1</v>
       </c>
       <c r="J24" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,16 +4848,16 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.516</v>
+        <v>0.524</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="J25" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
         <v>9.300000000000001</v>
@@ -4885,10 +4952,10 @@
         <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="n">
         <v>0.774</v>
@@ -4906,7 +4973,7 @@
         <v>20.6</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
@@ -4921,16 +4988,16 @@
         <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.3</v>
+        <v>105.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4948,13 +5015,13 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>7</v>
@@ -4966,7 +5033,7 @@
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>6</v>
@@ -4978,16 +5045,16 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>23</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -4996,16 +5063,16 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
         <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.672</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
@@ -5064,55 +5131,55 @@
         <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5121,16 +5188,16 @@
         <v>4</v>
       </c>
       <c r="AG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH26" t="n">
         <v>5</v>
       </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
       <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>25</v>
@@ -5157,16 +5224,16 @@
         <v>17</v>
       </c>
       <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
         <v>2</v>
       </c>
-      <c r="AT26" t="n">
-        <v>3</v>
-      </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5178,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H27" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O27" t="n">
         <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.773</v>
@@ -5267,10 +5334,10 @@
         <v>44.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5282,19 +5349,19 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC27" t="n">
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5357,10 +5424,10 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.617</v>
+        <v>0.623</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
         <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
         <v>0.771</v>
@@ -5443,22 +5510,22 @@
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W28" t="n">
         <v>7.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5476,28 +5543,28 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>18</v>
@@ -5515,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,13 +5591,13 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5724,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
@@ -5855,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5882,28 +5949,28 @@
         <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.556</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O31" t="n">
         <v>15.9</v>
@@ -5983,19 +6050,19 @@
         <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
         <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U31" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V31" t="n">
         <v>15.1</v>
@@ -6013,16 +6080,16 @@
         <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,10 +6101,10 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ31" t="n">
         <v>21</v>
@@ -6052,10 +6119,10 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6076,19 +6143,19 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-7-2014-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
     </row>
